--- a/Spec_Jeu-Laby.xlsx
+++ b/Spec_Jeu-Laby.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="18600" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="18600" windowHeight="8265" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Organigramme" sheetId="2" r:id="rId1"/>
     <sheet name="Spécification" sheetId="1" r:id="rId2"/>
-    <sheet name="conf" sheetId="3" r:id="rId3"/>
+    <sheet name="ConnectionsInitial" sheetId="3" r:id="rId3"/>
+    <sheet name="DialogReseau" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -2120,6 +2121,4011 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>20535</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>129393</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23503</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="110" name="Groupe 109"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="782535" y="173182"/>
+          <a:ext cx="5442858" cy="1564821"/>
+          <a:chOff x="4627172" y="0"/>
+          <a:chExt cx="5442858" cy="1564821"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="106" name="Rectangle 105"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4627172" y="0"/>
+            <a:ext cx="5442858" cy="1564821"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Flèche droite 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6591300" y="419100"/>
+            <a:ext cx="1181100" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Rectangle 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5361216" y="492579"/>
+            <a:ext cx="1140278" cy="464003"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="Flèche droite 24"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6610350" y="723900"/>
+            <a:ext cx="1181100" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="ZoneTexte 37"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5410200" y="533400"/>
+            <a:ext cx="457200" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8906</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>117764</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>71996</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="108" name="Groupe 107"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="770906" y="3460175"/>
+          <a:ext cx="5442858" cy="1564821"/>
+          <a:chOff x="4857997" y="1503221"/>
+          <a:chExt cx="5442858" cy="1564821"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="104" name="Rectangle 103"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4857997" y="1503221"/>
+            <a:ext cx="5442858" cy="1564821"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Rectangle 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5339444" y="1921329"/>
+            <a:ext cx="1140278" cy="464003"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="ZoneTexte 39"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5400675" y="1962150"/>
+            <a:ext cx="457200" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28945</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>96982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>137803</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>137803</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="109" name="Groupe 108"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="790945" y="1811482"/>
+          <a:ext cx="5442858" cy="1564821"/>
+          <a:chOff x="4826083" y="737756"/>
+          <a:chExt cx="5442858" cy="1564821"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="105" name="Rectangle 104"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4826083" y="737756"/>
+            <a:ext cx="5442858" cy="1564821"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="Rectangle 45"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5370741" y="1149804"/>
+            <a:ext cx="1140278" cy="464003"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="ZoneTexte 46"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5410200" y="1209675"/>
+            <a:ext cx="457200" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="Flèche droite 47"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="6153150" y="1247775"/>
+            <a:ext cx="342900" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>32161</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>153101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>141019</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3422</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="107" name="Groupe 106"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="794161" y="5106101"/>
+          <a:ext cx="5442858" cy="1564821"/>
+          <a:chOff x="4327071" y="2258787"/>
+          <a:chExt cx="5442858" cy="1564821"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="101" name="Rectangle 100"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4327071" y="2258787"/>
+            <a:ext cx="5442858" cy="1564821"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5348969" y="2750004"/>
+            <a:ext cx="1140278" cy="464003"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Rectangle 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7856766" y="2597604"/>
+            <a:ext cx="1140278" cy="464003"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="Flèche droite 26"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="6629400" y="2581275"/>
+            <a:ext cx="1181100" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="ZoneTexte 38"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7896225" y="2638425"/>
+            <a:ext cx="457200" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="ZoneTexte 40"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5391150" y="2781300"/>
+            <a:ext cx="457200" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="Flèche droite 48"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="6648450" y="2876550"/>
+            <a:ext cx="1181100" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38827</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>92218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>147685</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133039</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="102" name="Groupe 101"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="800827" y="6759718"/>
+          <a:ext cx="5442858" cy="1564821"/>
+          <a:chOff x="4065813" y="3548744"/>
+          <a:chExt cx="5442858" cy="1564821"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="99" name="Rectangle 98"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4065813" y="3548744"/>
+            <a:ext cx="5442858" cy="1564821"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Rectangle 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7817305" y="3823607"/>
+            <a:ext cx="1140278" cy="464003"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="Flèche droite 19"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6534150" y="3905250"/>
+            <a:ext cx="1181100" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="Rectangle 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5282294" y="3950154"/>
+            <a:ext cx="1140278" cy="464003"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="ZoneTexte 41"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5314950" y="3990975"/>
+            <a:ext cx="457200" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="ZoneTexte 43"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7896225" y="3857625"/>
+            <a:ext cx="457200" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="ZoneTexte 50"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4772025" y="3829051"/>
+            <a:ext cx="428625" cy="704850"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>35158</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>144016</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47657</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="100" name="Groupe 99"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6893158" y="197336"/>
+          <a:ext cx="5442858" cy="1564821"/>
+          <a:chOff x="10961913" y="5940880"/>
+          <a:chExt cx="5442858" cy="1564821"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="Rectangle 93"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10961913" y="5940880"/>
+            <a:ext cx="5442858" cy="1564821"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="Rectangle 29"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14246680" y="6195332"/>
+            <a:ext cx="1140278" cy="464003"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="Rectangle 31"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11711669" y="6445704"/>
+            <a:ext cx="1140278" cy="464003"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="ZoneTexte 42"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11744325" y="6477000"/>
+            <a:ext cx="457200" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="ZoneTexte 44"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14306550" y="6219825"/>
+            <a:ext cx="457200" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="50" name="Connecteur droit 49"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12925425" y="6477000"/>
+            <a:ext cx="1190625" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="ZoneTexte 52"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11220450" y="6391276"/>
+            <a:ext cx="428625" cy="704850"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="64" name="ZoneTexte 63"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15468600" y="6191251"/>
+            <a:ext cx="428625" cy="304799"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>14827</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>159469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123685</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9790</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="96" name="Groupe 95"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6872827" y="1873969"/>
+          <a:ext cx="5442858" cy="1564821"/>
+          <a:chOff x="4509406" y="5842909"/>
+          <a:chExt cx="5442858" cy="1564821"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="93" name="Rectangle 92"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4509406" y="5842909"/>
+            <a:ext cx="5442858" cy="1564821"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="54" name="Rectangle 53"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5291819" y="6350454"/>
+            <a:ext cx="1140278" cy="464003"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="55" name="Rectangle 54"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7799616" y="6674304"/>
+            <a:ext cx="1140278" cy="464003"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="Flèche droite 55"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="6572250" y="6657975"/>
+            <a:ext cx="1181100" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="57" name="ZoneTexte 56"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7839075" y="6715125"/>
+            <a:ext cx="457200" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP3</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="58" name="ZoneTexte 57"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5334000" y="6381750"/>
+            <a:ext cx="457200" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="59" name="Flèche droite 58"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="6568888" y="6953250"/>
+            <a:ext cx="1181100" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="60" name="Rectangle 59"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7855405" y="6033407"/>
+            <a:ext cx="1140278" cy="464003"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="61" name="ZoneTexte 60"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7915275" y="6057900"/>
+            <a:ext cx="457200" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="62" name="Connecteur droit 61"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6534150" y="6372225"/>
+            <a:ext cx="1190625" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="63" name="ZoneTexte 62"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4819650" y="6296026"/>
+            <a:ext cx="428625" cy="704850"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="65" name="ZoneTexte 64"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9077325" y="6010276"/>
+            <a:ext cx="428625" cy="304799"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>26804</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>135662</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>146923</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="97" name="Groupe 96"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6884804" y="3535102"/>
+          <a:ext cx="5442858" cy="1564821"/>
+          <a:chOff x="4561113" y="7527473"/>
+          <a:chExt cx="5442858" cy="1564821"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="92" name="Rectangle 91"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4561113" y="7527473"/>
+            <a:ext cx="5442858" cy="1564821"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="66" name="Rectangle 65"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5320394" y="8093529"/>
+            <a:ext cx="1140278" cy="464003"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="67" name="Rectangle 66"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7828191" y="8417379"/>
+            <a:ext cx="1140278" cy="464003"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="69" name="ZoneTexte 68"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7867650" y="8458200"/>
+            <a:ext cx="457200" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP3</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="ZoneTexte 69"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5362575" y="8124825"/>
+            <a:ext cx="457200" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="72" name="Rectangle 71"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7883980" y="7776482"/>
+            <a:ext cx="1140278" cy="464003"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="73" name="ZoneTexte 72"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7943850" y="7800975"/>
+            <a:ext cx="457200" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="74" name="Connecteur droit 73"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6562725" y="8115300"/>
+            <a:ext cx="1190625" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="75" name="ZoneTexte 74"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4848225" y="8039101"/>
+            <a:ext cx="428625" cy="704850"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP2</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP3</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="76" name="ZoneTexte 75"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9105900" y="7753351"/>
+            <a:ext cx="428625" cy="304799"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="88" name="Flèche droite 87"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6572250" y="8372475"/>
+            <a:ext cx="1181100" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12586</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>37892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>121444</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>78713</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="98" name="Groupe 97"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6870586" y="5181392"/>
+          <a:ext cx="5442858" cy="1564821"/>
+          <a:chOff x="4585606" y="9266465"/>
+          <a:chExt cx="5442858" cy="1564821"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="Rectangle 90"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4585606" y="9266465"/>
+            <a:ext cx="5442858" cy="1564821"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="77" name="Rectangle 76"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5339444" y="9741354"/>
+            <a:ext cx="1140278" cy="464003"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="78" name="Rectangle 77"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7847241" y="10065204"/>
+            <a:ext cx="1140278" cy="464003"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="ZoneTexte 79"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7886700" y="10106025"/>
+            <a:ext cx="457200" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP3</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="81" name="ZoneTexte 80"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5381625" y="9772650"/>
+            <a:ext cx="457200" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="83" name="Rectangle 82"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7903030" y="9424307"/>
+            <a:ext cx="1140278" cy="464003"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="ZoneTexte 83"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7962900" y="9448800"/>
+            <a:ext cx="457200" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="85" name="Connecteur droit 84"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6581775" y="9763125"/>
+            <a:ext cx="1190625" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="86" name="ZoneTexte 85"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4867275" y="9686926"/>
+            <a:ext cx="428625" cy="704850"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP2</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP3</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="ZoneTexte 86"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9124950" y="9401176"/>
+            <a:ext cx="428625" cy="304799"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="89" name="ZoneTexte 88"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9153525" y="10134601"/>
+            <a:ext cx="428625" cy="304799"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="90" name="Connecteur droit 89"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6591300" y="10125075"/>
+            <a:ext cx="1190625" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>757926</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>566408</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>13245</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="116" name="Groupe 115"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12949926" y="233288"/>
+          <a:ext cx="3618482" cy="3970957"/>
+          <a:chOff x="22907880" y="1289696"/>
+          <a:chExt cx="3618482" cy="3970957"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="111" name="Rectangle 110"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="22907880" y="1289696"/>
+            <a:ext cx="3618482" cy="3970957"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="23113473" y="1506049"/>
+            <a:ext cx="1140278" cy="464003"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Rectangle 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="23142418" y="2609960"/>
+            <a:ext cx="1140278" cy="464003"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="ZoneTexte 9"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="24357659" y="2163027"/>
+            <a:ext cx="756557" cy="258536"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>SERVEUR</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="ZoneTexte 10"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="24393779" y="2707559"/>
+            <a:ext cx="650421" cy="269421"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>CLIENT</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="ZoneTexte 11"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="24365452" y="1580270"/>
+            <a:ext cx="756557" cy="258536"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>INDEFINI</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="Flèche droite 18"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="23139943" y="3290811"/>
+            <a:ext cx="1181100" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="Flèche droite 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="23154663" y="3713375"/>
+            <a:ext cx="1181100" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="Rectangle 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="23136728" y="2046377"/>
+            <a:ext cx="1140278" cy="464003"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="ZoneTexte 22"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="24450929" y="3275596"/>
+            <a:ext cx="650421" cy="269421"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>UDP</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="ZoneTexte 23"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="24475175" y="3735394"/>
+            <a:ext cx="650421" cy="269421"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>TCP</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="36" name="Connecteur droit 35"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="23135613" y="4413895"/>
+            <a:ext cx="1190625" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="112" name="ZoneTexte 111"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="23548156" y="4667465"/>
+            <a:ext cx="428625" cy="304799"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>IP1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="113" name="ZoneTexte 112"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="24470692" y="4257588"/>
+            <a:ext cx="1304875" cy="263477"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>Ligne Connectée</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="114" name="ZoneTexte 113"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="24440742" y="4727828"/>
+            <a:ext cx="1723975" cy="301576"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>Enregistrement adresse</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -2424,7 +6430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -2826,6 +6832,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Spec_Jeu-Laby.xlsx
+++ b/Spec_Jeu-Laby.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="18600" windowHeight="8265" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="18600" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Organigramme" sheetId="2" r:id="rId1"/>
-    <sheet name="Spécification" sheetId="1" r:id="rId2"/>
-    <sheet name="ConnectionsInitial" sheetId="3" r:id="rId3"/>
-    <sheet name="DialogReseau" sheetId="4" r:id="rId4"/>
+    <sheet name="Scenario Jeu" sheetId="5" r:id="rId2"/>
+    <sheet name="Spécification" sheetId="1" r:id="rId3"/>
+    <sheet name="ConnectionsInitial" sheetId="3" r:id="rId4"/>
+    <sheet name="DialogReseau" sheetId="4" r:id="rId5"/>
+    <sheet name="Feuil1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>L'application génère un personnage par joueur</t>
   </si>
@@ -157,6 +159,31 @@
   </si>
   <si>
     <t>Au début de la partie, les personnages des joueurs, les personnages statiques, les objets et la porte de sortie sont positionnée.</t>
+  </si>
+  <si>
+    <t>Création du labyrinthe</t>
+  </si>
+  <si>
+    <t>Positionnement des objets</t>
+  </si>
+  <si>
+    <t>Positionnement du personnage</t>
+  </si>
+  <si>
+    <t>Le personnage se déplace en fonction de la sélection du joueur</t>
+  </si>
+  <si>
+    <t>Si le joueur possède un pic dans son inventaire, il peut utilisé celui-ci pour casser un mur (il est supprimé du jeux)</t>
+  </si>
+  <si>
+    <t>Si le personnage recontre une case comportant un Objet:
+-Si l'objet est un sort, les paramètres du personnage sont affectés par le sort et le sort est supprimé du jeux
+-Si l'objet est une Potion, un carte de sort, une carte du Labyrinthe, un pic ou une clé, l'objet est mis dans l'inventaire et enlevé du labyrinthe
+-Si l'objet est un Etre ou un adversaire, le joueur entre en mode combat
+-Si l'objet est une porte, celle-ci s'ouvrira si le joueur a 5 clés dans son inventaire</t>
+  </si>
+  <si>
+    <t>Si le joueur possède des potions dans son inventaire, il peut les utiliser pour affectés ses paramètres ensuite la potion utilisée est supprimée du jeux</t>
   </si>
 </sst>
 </file>
@@ -1395,16 +1422,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1413,7 +1440,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4467225" y="2095500"/>
+          <a:off x="5267325" y="1295400"/>
           <a:ext cx="447675" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1587,16 +1614,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1605,7 +1632,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5305425" y="1304925"/>
+          <a:off x="4419600" y="2038350"/>
           <a:ext cx="447675" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2126,431 +2153,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>20535</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
+      <xdr:colOff>185827</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>29747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>129393</xdr:colOff>
+      <xdr:colOff>294685</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>23503</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="110" name="Groupe 109"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="782535" y="173182"/>
-          <a:ext cx="5442858" cy="1564821"/>
-          <a:chOff x="4627172" y="0"/>
-          <a:chExt cx="5442858" cy="1564821"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="106" name="Rectangle 105"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4627172" y="0"/>
-            <a:ext cx="5442858" cy="1564821"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="90000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="fr-FR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Flèche droite 12"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6591300" y="419100"/>
-            <a:ext cx="1181100" cy="266700"/>
-          </a:xfrm>
-          <a:prstGeom prst="rightArrow">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="fr-FR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Rectangle 13"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5361216" y="492579"/>
-            <a:ext cx="1140278" cy="464003"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="fr-FR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="Flèche droite 24"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6610350" y="723900"/>
-            <a:ext cx="1181100" cy="266700"/>
-          </a:xfrm>
-          <a:prstGeom prst="rightArrow">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="fr-FR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="ZoneTexte 37"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5410200" y="533400"/>
-            <a:ext cx="457200" cy="247650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100"/>
-              <a:t>IP1</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>8906</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>31175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>117764</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>71996</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="108" name="Groupe 107"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="770906" y="3460175"/>
-          <a:ext cx="5442858" cy="1564821"/>
-          <a:chOff x="4857997" y="1503221"/>
-          <a:chExt cx="5442858" cy="1564821"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="104" name="Rectangle 103"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4857997" y="1503221"/>
-            <a:ext cx="5442858" cy="1564821"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="90000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="fr-FR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Rectangle 14"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5339444" y="1921329"/>
-            <a:ext cx="1140278" cy="464003"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent3"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="fr-FR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="ZoneTexte 39"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5400675" y="1962150"/>
-            <a:ext cx="457200" cy="247650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100"/>
-              <a:t>IP1</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28945</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>96982</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>137803</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>137803</xdr:rowOff>
+      <xdr:rowOff>70568</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2559,7 +2170,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="790945" y="1811482"/>
+          <a:off x="947827" y="220247"/>
           <a:ext cx="5442858" cy="1564821"/>
           <a:chOff x="4826083" y="737756"/>
           <a:chExt cx="5442858" cy="1564821"/>
@@ -2750,15 +2361,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>32161</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>153101</xdr:rowOff>
+      <xdr:colOff>155426</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>141019</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>3422</xdr:rowOff>
+      <xdr:colOff>264284</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>160305</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2767,7 +2378,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="794161" y="5106101"/>
+          <a:off x="917426" y="3548484"/>
           <a:ext cx="5442858" cy="1564821"/>
           <a:chOff x="4327071" y="2258787"/>
           <a:chExt cx="5442858" cy="1564821"/>
@@ -2909,7 +2520,7 @@
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000">
+          <a:xfrm>
             <a:off x="6629400" y="2581275"/>
             <a:ext cx="1181100" cy="266700"/>
           </a:xfrm>
@@ -3046,7 +2657,7 @@
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000">
+          <a:xfrm>
             <a:off x="6648450" y="2876550"/>
             <a:ext cx="1181100" cy="266700"/>
           </a:xfrm>
@@ -3076,735 +2687,6 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr lang="fr-FR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38827</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>92218</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>147685</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>133039</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="102" name="Groupe 101"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="800827" y="6759718"/>
-          <a:ext cx="5442858" cy="1564821"/>
-          <a:chOff x="4065813" y="3548744"/>
-          <a:chExt cx="5442858" cy="1564821"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="99" name="Rectangle 98"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4065813" y="3548744"/>
-            <a:ext cx="5442858" cy="1564821"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="90000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="fr-FR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Rectangle 15"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7817305" y="3823607"/>
-            <a:ext cx="1140278" cy="464003"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="fr-FR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="Flèche droite 19"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6534150" y="3905250"/>
-            <a:ext cx="1181100" cy="266700"/>
-          </a:xfrm>
-          <a:prstGeom prst="rightArrow">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent2">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="fr-FR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="Rectangle 27"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5282294" y="3950154"/>
-            <a:ext cx="1140278" cy="464003"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent3"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="fr-FR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="42" name="ZoneTexte 41"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5314950" y="3990975"/>
-            <a:ext cx="457200" cy="247650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100"/>
-              <a:t>IP1</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="44" name="ZoneTexte 43"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7896225" y="3857625"/>
-            <a:ext cx="457200" cy="247650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100"/>
-              <a:t>IP2</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="51" name="ZoneTexte 50"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4772025" y="3829051"/>
-            <a:ext cx="428625" cy="704850"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100"/>
-              <a:t>IP2</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>35158</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>6836</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>144016</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>47657</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="100" name="Groupe 99"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6893158" y="197336"/>
-          <a:ext cx="5442858" cy="1564821"/>
-          <a:chOff x="10961913" y="5940880"/>
-          <a:chExt cx="5442858" cy="1564821"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="94" name="Rectangle 93"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10961913" y="5940880"/>
-            <a:ext cx="5442858" cy="1564821"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="90000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="fr-FR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="Rectangle 29"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="14246680" y="6195332"/>
-            <a:ext cx="1140278" cy="464003"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent5">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent5"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="fr-FR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="Rectangle 31"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11711669" y="6445704"/>
-            <a:ext cx="1140278" cy="464003"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent3"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="fr-FR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="43" name="ZoneTexte 42"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11744325" y="6477000"/>
-            <a:ext cx="457200" cy="247650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100"/>
-              <a:t>IP1</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="ZoneTexte 44"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="14306550" y="6219825"/>
-            <a:ext cx="457200" cy="247650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100"/>
-              <a:t>IP2</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="50" name="Connecteur droit 49"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12925425" y="6477000"/>
-            <a:ext cx="1190625" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="53" name="ZoneTexte 52"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11220450" y="6391276"/>
-            <a:ext cx="428625" cy="704850"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100"/>
-              <a:t>IP2</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="64" name="ZoneTexte 63"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="15468600" y="6191251"/>
-            <a:ext cx="428625" cy="304799"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100"/>
-              <a:t>IP1</a:t>
-            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -3973,7 +2855,7 @@
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000">
+          <a:xfrm>
             <a:off x="6572250" y="6657975"/>
             <a:ext cx="1181100" cy="266700"/>
           </a:xfrm>
@@ -4110,7 +2992,7 @@
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000">
+          <a:xfrm>
             <a:off x="6568888" y="6953250"/>
             <a:ext cx="1181100" cy="266700"/>
           </a:xfrm>
@@ -4842,7 +3724,7 @@
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm>
+          <a:xfrm rot="10800000">
             <a:off x="6572250" y="8372475"/>
             <a:ext cx="1181100" cy="266700"/>
           </a:xfrm>
@@ -6123,6 +5005,4645 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>210611</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>109616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>319469</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>150437</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Groupe 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="972611" y="1824116"/>
+          <a:ext cx="5442858" cy="1564821"/>
+          <a:chOff x="770906" y="3460175"/>
+          <a:chExt cx="5442858" cy="1564821"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="108" name="Groupe 107"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="770906" y="3460175"/>
+            <a:ext cx="5442858" cy="1564821"/>
+            <a:chOff x="4857997" y="1503221"/>
+            <a:chExt cx="5442858" cy="1564821"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="104" name="Rectangle 103"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4857997" y="1503221"/>
+              <a:ext cx="5442858" cy="1564821"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="Rectangle 14"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5339444" y="1921329"/>
+              <a:ext cx="1140278" cy="464003"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent3"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="ZoneTexte 39"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5400675" y="1962150"/>
+              <a:ext cx="457200" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>IP1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="103" name="Flèche droite 102"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2631083" y="3818763"/>
+            <a:ext cx="1181100" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="115" name="Flèche droite 114"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2650133" y="4123563"/>
+            <a:ext cx="1181100" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>162093</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>103424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>270951</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>144245</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="Groupe 2"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="924093" y="5246924"/>
+          <a:ext cx="5442858" cy="1564821"/>
+          <a:chOff x="800827" y="6759718"/>
+          <a:chExt cx="5442858" cy="1564821"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="102" name="Groupe 101"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="800827" y="6759718"/>
+            <a:ext cx="5442858" cy="1564821"/>
+            <a:chOff x="4065813" y="3548744"/>
+            <a:chExt cx="5442858" cy="1564821"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="99" name="Rectangle 98"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4065813" y="3548744"/>
+              <a:ext cx="5442858" cy="1564821"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="Rectangle 15"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7817305" y="3823607"/>
+              <a:ext cx="1140278" cy="464003"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="Flèche droite 19"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="10800000">
+              <a:off x="6534150" y="3905250"/>
+              <a:ext cx="1181100" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rightArrow">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="Rectangle 27"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5282294" y="3950154"/>
+              <a:ext cx="1140278" cy="464003"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent3"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="42" name="ZoneTexte 41"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5314950" y="3990975"/>
+              <a:ext cx="457200" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>IP1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="44" name="ZoneTexte 43"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7896225" y="3857625"/>
+              <a:ext cx="457200" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>IP2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="51" name="ZoneTexte 50"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4772025" y="3829051"/>
+              <a:ext cx="428625" cy="704850"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>IP2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="117" name="Flèche droite 116"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3210091" y="7476894"/>
+            <a:ext cx="1181100" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="118" name="Flèche droite 117"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3229141" y="7772169"/>
+            <a:ext cx="1181100" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>35158</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>144016</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47657</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Groupe 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6893158" y="197336"/>
+          <a:ext cx="5442858" cy="1564821"/>
+          <a:chOff x="6893158" y="197336"/>
+          <a:chExt cx="5442858" cy="1564821"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="100" name="Groupe 99"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6893158" y="197336"/>
+            <a:ext cx="5442858" cy="1564821"/>
+            <a:chOff x="10961913" y="5940880"/>
+            <a:chExt cx="5442858" cy="1564821"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="94" name="Rectangle 93"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10961913" y="5940880"/>
+              <a:ext cx="5442858" cy="1564821"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="Rectangle 29"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14246680" y="6195332"/>
+              <a:ext cx="1140278" cy="464003"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent5"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="Rectangle 31"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11711669" y="6445704"/>
+              <a:ext cx="1140278" cy="464003"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent3"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="43" name="ZoneTexte 42"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11744325" y="6477000"/>
+              <a:ext cx="457200" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>IP1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="45" name="ZoneTexte 44"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14306550" y="6219825"/>
+              <a:ext cx="457200" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>IP2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="50" name="Connecteur droit 49"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12925425" y="6477000"/>
+              <a:ext cx="1190625" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="53" name="ZoneTexte 52"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11220450" y="6391276"/>
+              <a:ext cx="428625" cy="704850"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>IP2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="64" name="ZoneTexte 63"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15468600" y="6191251"/>
+              <a:ext cx="428625" cy="304799"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>IP1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="119" name="Flèche droite 118"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8899011" y="1015366"/>
+            <a:ext cx="1181100" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="120" name="Flèche droite 119"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8918061" y="1310641"/>
+            <a:ext cx="1181100" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rectangle 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="247650"/>
+          <a:ext cx="7858125" cy="5829300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="838200"/>
+          <a:ext cx="6800850" cy="4733925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2257425" y="1095375"/>
+          <a:ext cx="5505450" cy="4276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2581275" y="1495425"/>
+          <a:ext cx="1057275" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="2790825"/>
+          <a:ext cx="752475" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="3876675"/>
+          <a:ext cx="714375" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4829175" y="3876675"/>
+          <a:ext cx="676275" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="3886200"/>
+          <a:ext cx="638175" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3981450" y="3886200"/>
+          <a:ext cx="714375" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452439</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>566739</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Connecteur en angle 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="0"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4095751" y="2843213"/>
+          <a:ext cx="447675" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>528639</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>566739</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Connecteur en angle 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="0"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4514851" y="3262313"/>
+          <a:ext cx="447675" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>566738</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Connecteur en angle 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4912519" y="3631406"/>
+          <a:ext cx="419100" cy="33338"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>566738</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Connecteur en angle 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="0"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="5319713" y="3257550"/>
+          <a:ext cx="438150" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="ZoneTexte 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7991475" y="1000126"/>
+          <a:ext cx="628650" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>PARTIE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="ZoneTexte 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6981824" y="1171576"/>
+          <a:ext cx="695325" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>JOUEUR</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="ZoneTexte 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638426" y="1552576"/>
+          <a:ext cx="923924" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>LABYRINTHE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4057650" y="1552575"/>
+          <a:ext cx="1057275" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5419725" y="1571625"/>
+          <a:ext cx="1057275" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="ZoneTexte 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4124326" y="1619251"/>
+          <a:ext cx="923924" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>DICO LOOT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="ZoneTexte 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5476876" y="1628776"/>
+          <a:ext cx="923924" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>INVENTAIRE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="ZoneTexte 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4829176" y="2838451"/>
+          <a:ext cx="476249" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>LOOT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="ZoneTexte 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095751" y="3943351"/>
+          <a:ext cx="581024" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>SORT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="ZoneTexte 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="3905251"/>
+          <a:ext cx="609599" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>PORTE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="ZoneTexte 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5629276" y="3905251"/>
+          <a:ext cx="581024" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>CLE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6419850" y="3886200"/>
+          <a:ext cx="714375" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="ZoneTexte 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6467476" y="3914776"/>
+          <a:ext cx="514349" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>ETRE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="ZoneTexte 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3209926" y="3933826"/>
+          <a:ext cx="447674" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>PIC</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>566739</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>681039</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Connecteur en angle 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="0"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="5734051" y="2843213"/>
+          <a:ext cx="447675" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11696700" y="600074"/>
+          <a:ext cx="5534025" cy="2971801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="ZoneTexte 38"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11868149" y="666751"/>
+          <a:ext cx="895351" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>GRAPHISME</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectangle 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11753850" y="4362450"/>
+          <a:ext cx="5495925" cy="2905125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="ZoneTexte 40"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11915774" y="4429126"/>
+          <a:ext cx="704851" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>RESEAU</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rectangle 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9553575" y="1371600"/>
+          <a:ext cx="1666875" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rectangle 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601200" y="4324350"/>
+          <a:ext cx="1666875" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Connecteur en angle 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="3"/>
+          <a:endCxn id="42" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9067800" y="1900238"/>
+          <a:ext cx="485775" cy="1262062"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Connecteur en angle 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="3"/>
+          <a:endCxn id="43" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9067800" y="3162300"/>
+          <a:ext cx="533400" cy="1690688"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Connecteur en angle 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="3"/>
+          <a:endCxn id="40" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11268075" y="4852988"/>
+          <a:ext cx="485775" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Connecteur en angle 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="3"/>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11220450" y="1900238"/>
+          <a:ext cx="476250" cy="185737"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="ZoneTexte 51"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9610725" y="1409700"/>
+          <a:ext cx="1371599" cy="533399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>INTERFACE METIER/GRAPHISME</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="ZoneTexte 52"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9610725" y="4371975"/>
+          <a:ext cx="1371599" cy="533399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>INTERFACE METIER/RESEAU</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="ZoneTexte 54"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8086725" y="409576"/>
+          <a:ext cx="628650" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>METIER</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Rectangle 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11915775" y="1066800"/>
+          <a:ext cx="5076825" cy="2171700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Rectangle 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9667875" y="7010400"/>
+          <a:ext cx="1666875" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="ZoneTexte 68"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9725025" y="7048500"/>
+          <a:ext cx="1371599" cy="533399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>INTERFACE METIER/ENTREES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Connecteur en angle 69"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="3"/>
+          <a:endCxn id="68" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9067800" y="3162300"/>
+          <a:ext cx="600075" cy="4376738"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 45238"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Rectangle 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11934825" y="4943476"/>
+          <a:ext cx="1685926" cy="990599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Rectangle 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13925549" y="5038725"/>
+          <a:ext cx="3162301" cy="1914525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="ZoneTexte 76"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12020549" y="5029201"/>
+          <a:ext cx="704851" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>UDP</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>8607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="ZoneTexte 77"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13992224" y="5086351"/>
+          <a:ext cx="533401" cy="256256"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>TCP</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="Rectangle 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14030325" y="5429249"/>
+          <a:ext cx="1847850" cy="1362076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="Rectangle 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16011525" y="5448300"/>
+          <a:ext cx="923925" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="ZoneTexte 80"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14106524" y="5581651"/>
+          <a:ext cx="704851" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>SERVER</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>122144</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="ZoneTexte 81"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16059149" y="5553075"/>
+          <a:ext cx="619126" cy="284069"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>CLIENT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="Rectangle 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14763750" y="5915025"/>
+          <a:ext cx="971550" cy="761999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="ZoneTexte 85"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14801849" y="5991226"/>
+          <a:ext cx="876301" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>CNX CLIENT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="ZoneTexte 89"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12087224" y="1181101"/>
+          <a:ext cx="895351" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>WINFORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="Rectangle 90"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12182475" y="1676400"/>
+          <a:ext cx="1057275" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="ZoneTexte 91"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12268199" y="1704976"/>
+          <a:ext cx="895351" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>LABYRINTHE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Rectangle 92"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13458825" y="1676400"/>
+          <a:ext cx="962025" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="ZoneTexte 93"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13544549" y="1704976"/>
+          <a:ext cx="609601" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>PLAYER</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6416,7 +9937,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6427,6 +9948,59 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="135.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B55"/>
   <sheetViews>
@@ -6828,12 +10402,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6843,7 +10417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6853,4 +10427,19 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>